--- a/MarsFramework/ExcelData/TestDataManageListings.xlsx
+++ b/MarsFramework/ExcelData/TestDataManageListings.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR.Mateo\MVP\marsframework-master\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E7588D-EC0D-435A-92F2-DC4A793ED3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFBBBBF-1986-4FBB-807C-DCC7FB381B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SignUp" sheetId="3" r:id="rId1"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="ManageListings" sheetId="2" r:id="rId3"/>
+    <sheet name="EditShareSkill" sheetId="4" r:id="rId1"/>
+    <sheet name="SignUp" sheetId="3" r:id="rId2"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId3"/>
+    <sheet name="ManageListings" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
   <si>
     <t>Url</t>
   </si>
@@ -70,6 +71,90 @@
   </si>
   <si>
     <t>Mateo</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Skill-exchange</t>
+  </si>
+  <si>
+    <t>8:00pm</t>
+  </si>
+  <si>
+    <t>6:00pm</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>C sharp</t>
+  </si>
+  <si>
+    <t>Would like to provide C sharp  training for beginners</t>
   </si>
 </sst>
 </file>
@@ -80,13 +165,19 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm:ss;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lato"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -115,12 +206,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,11 +550,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26025014-80E1-4857-8997-DE69DF2519BA}">
+  <dimension ref="A1:Q2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44732</v>
+      </c>
+      <c r="I2" s="2">
+        <v>44762</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -556,12 +778,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:H36"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MarsFramework/ExcelData/TestDataManageListings.xlsx
+++ b/MarsFramework/ExcelData/TestDataManageListings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JR.Mateo\MVP\marsframework-master\marsframework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CFBBBBF-1986-4FBB-807C-DCC7FB381B90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011F2EF9-E480-4FA7-A4D3-A7E2428B1106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3300" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EditShareSkill" sheetId="4" r:id="rId1"/>
@@ -100,12 +100,6 @@
     <t>One-off service</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>QA</t>
-  </si>
-  <si>
     <t>Programming &amp; Tech</t>
   </si>
   <si>
@@ -155,6 +149,12 @@
   </si>
   <si>
     <t>Would like to provide C sharp  training for beginners</t>
+  </si>
+  <si>
+    <t>Programming</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26025014-80E1-4857-8997-DE69DF2519BA}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B9:B10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,67 +577,67 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" t="s">
         <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>24</v>
